--- a/src/docsexcel/ЖЕРЕБ.xlsx
+++ b/src/docsexcel/ЖЕРЕБ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="89">
   <si>
     <t>№</t>
   </si>
@@ -235,7 +235,7 @@
     <t>Кушнарьов Віктор</t>
   </si>
   <si>
-    <t>Бот Ботович1</t>
+    <t>Мієнко Роман</t>
   </si>
   <si>
     <t>Big Fish</t>
@@ -269,18 +269,6 @@
   </si>
   <si>
     <t>Злагоднюк Петро</t>
-  </si>
-  <si>
-    <t>Кузенкин Валерій</t>
-  </si>
-  <si>
-    <t>Fishband</t>
-  </si>
-  <si>
-    <t>Шевченко Богдан</t>
-  </si>
-  <si>
-    <t>Мієнко Роман</t>
   </si>
   <si>
     <t>Шилін Дмитро</t>
@@ -687,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1840,7 +1828,7 @@
     </row>
     <row r="60" spans="1:6" ht="23" customHeight="1">
       <c r="A60" s="5">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>85</v>
@@ -1849,18 +1837,18 @@
         <v>86</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="23" customHeight="1">
       <c r="A61" s="5">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>87</v>
@@ -1869,18 +1857,18 @@
         <v>86</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="23" customHeight="1">
       <c r="A62" s="5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>88</v>
@@ -1889,72 +1877,12 @@
         <v>86</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="23" customHeight="1">
-      <c r="A63" s="5">
-        <v>58</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="23" customHeight="1">
-      <c r="A64" s="5">
-        <v>59</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="23" customHeight="1">
-      <c r="A65" s="5">
-        <v>60</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="5" t="s">
         <v>14</v>
       </c>
     </row>
